--- a/data/outputs/数学期刊(上)_altmetric/34.Journal fur Mathematik-Didaktik.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/34.Journal fur Mathematik-Didaktik.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -645,6 +650,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -758,6 +766,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -877,6 +888,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -988,6 +1002,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1101,6 +1118,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1212,6 +1232,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1323,6 +1346,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1434,6 +1460,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1547,6 +1576,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1658,6 +1690,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1769,6 +1804,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1880,6 +1918,9 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,6 +2032,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2104,6 +2148,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2217,6 +2264,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2330,6 +2380,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2441,6 +2494,9 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>0</v>
       </c>
     </row>
